--- a/3_course/Distributed_computing/Labs/Lab_6/DC_Lab_6.xlsx
+++ b/3_course/Distributed_computing/Labs/Lab_6/DC_Lab_6.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Execution Time (sec)</t>
   </si>
@@ -72,6 +72,12 @@
   <si>
     <t>Grid size</t>
   </si>
+  <si>
+    <t xml:space="preserve">Accuracy </t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
 </sst>
 </file>
 
@@ -94,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,8 +137,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -355,19 +367,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -478,6 +477,60 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -487,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -528,22 +581,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -567,7 +617,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -591,6 +641,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -603,16 +656,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -633,6 +680,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -642,7 +692,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -928,7 +987,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -951,126 +1010,132 @@
       <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="50" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="22">
+      <c r="G2" s="52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>10</v>
       </c>
       <c r="C3" s="3">
         <v>2.4000000000000001E-5</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <f>F3*G8</f>
         <v>6.0974624999999996E-6</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="51">
         <f>36*B3*B3</f>
         <v>3600</v>
       </c>
+      <c r="G3" s="53">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
+      <c r="A4" s="21">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>100</v>
       </c>
       <c r="C4" s="3">
         <v>1.0399999999999999E-3</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <f>F4*G8</f>
         <v>5.0812187500000002E-4</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <f>30*B4*B4</f>
         <v>300000</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <f t="shared" ref="A5:A14" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>1000</v>
       </c>
       <c r="C5" s="3">
         <v>5.0658000000000002E-2</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <f>F5*G8</f>
         <v>5.0812187500000001E-2</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <f t="shared" ref="F5:F7" si="1">30*B5*B5</f>
         <v>30000000</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <f>B5+1000</f>
         <v>2000</v>
       </c>
       <c r="C6" s="3">
         <v>0.202349</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <f>F6*G8</f>
         <v>0.20324875000000001</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <f t="shared" si="1"/>
         <v>120000000</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <f t="shared" ref="B7:B14" si="2">B6+1000</f>
         <v>3000</v>
       </c>
       <c r="C7" s="3">
         <v>0.42510599999999998</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <f>F7*G8</f>
         <v>0.45730968750000001</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <f t="shared" si="1"/>
         <v>270000000</v>
       </c>
@@ -1079,25 +1144,25 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="C8" s="3">
         <v>0.81299500000000002</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <f>F8*G8</f>
         <v>0.81299500000000002</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <f>30*B8*B8</f>
         <v>480000000</v>
       </c>
@@ -1107,129 +1172,129 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
       <c r="C9" s="3">
         <v>1.2126729999999999</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <f>F9*G8</f>
         <v>1.2703046874999999</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <f>30*B9*B9</f>
         <v>750000000</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
+      <c r="A10" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
       <c r="C10" s="3">
         <v>1.720764</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <f>F10*G8</f>
         <v>1.82923875</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <f t="shared" ref="F10:F14" si="3">30*B10*B10</f>
         <v>1080000000</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
       <c r="C11" s="3">
         <v>2.5471370000000002</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <f>F11*G8</f>
         <v>2.4897971874999998</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <f t="shared" si="3"/>
         <v>1470000000</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+      <c r="A12" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <f t="shared" si="2"/>
         <v>8000</v>
       </c>
       <c r="C12" s="3">
         <v>4.971158</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <f>F12*G8</f>
         <v>3.2519800000000001</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <f t="shared" si="3"/>
         <v>1920000000</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
+      <c r="A13" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
       <c r="C13" s="3">
         <v>5.5826630000000002</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <f>F13*G8</f>
         <v>4.1157871874999996</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <f t="shared" si="3"/>
         <v>2430000000</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="24">
+      <c r="A14" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="C14" s="8">
         <v>6.9741980000000003</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="25">
         <f>F14*G8</f>
         <v>5.0812187499999997</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="26">
         <f t="shared" si="3"/>
         <v>3000000000</v>
       </c>
@@ -1248,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1261,65 +1326,71 @@
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="47" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="42"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="47" t="s">
+      <c r="G2" s="46"/>
+      <c r="H2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="47"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="39"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="28" t="s">
+      <c r="K2" s="54"/>
+      <c r="L2" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="42"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="27" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -1332,38 +1403,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="31">
         <v>10</v>
       </c>
       <c r="C4" s="3">
         <v>2.4000000000000001E-5</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="31">
         <v>1.3550000000000001E-3</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <f t="shared" ref="E4:E15" si="0">C4/D4</f>
         <v>1.7712177121771217E-2</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="31">
         <v>2.4009999999999999E-3</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="30">
         <f t="shared" ref="G4:G15" si="1">C4/F4</f>
         <v>9.9958350687213669E-3</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="31">
         <v>3.0219999999999999E-3</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="30">
         <f t="shared" ref="I4:I15" si="2">C4/H4</f>
         <v>7.9417604235605555E-3</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="28">
         <v>2.447E-3</v>
       </c>
       <c r="K4" s="11">
@@ -1371,39 +1442,39 @@
         <v>9.8079280751941153E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="31">
         <v>100</v>
       </c>
       <c r="C5" s="3">
         <v>1.0399999999999999E-3</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <v>1.441E-3</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <f t="shared" si="0"/>
         <v>0.72172102706453845</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <v>7.2800000000000002E-4</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="30">
         <f t="shared" si="1"/>
         <v>1.4285714285714284</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="31">
         <v>1.054E-3</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="30">
         <f t="shared" si="2"/>
         <v>0.98671726755218203</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="28">
         <v>1.9889999999999999E-3</v>
       </c>
       <c r="K5" s="11">
@@ -1411,39 +1482,39 @@
         <v>0.52287581699346408</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ref="A6:A15" si="4">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <v>1000</v>
       </c>
       <c r="C6" s="3">
         <v>5.0658000000000002E-2</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <v>7.4707999999999997E-2</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <f t="shared" si="0"/>
         <v>0.67807999143331377</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="31">
         <v>0.17219699999999999</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="30">
         <f t="shared" si="1"/>
         <v>0.29418630986602556</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="31">
         <v>7.8592999999999996E-2</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="30">
         <f t="shared" si="2"/>
         <v>0.64456122046492692</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="28">
         <v>6.4364000000000005E-2</v>
       </c>
       <c r="K6" s="11">
@@ -1451,40 +1522,40 @@
         <v>0.78705487539618413</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="31">
         <f>B6+1000</f>
         <v>2000</v>
       </c>
       <c r="C7" s="3">
         <v>0.202349</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>0.220304</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <f t="shared" si="0"/>
         <v>0.91849898322318246</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="31">
         <v>0.18990799999999999</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="30">
         <f t="shared" si="1"/>
         <v>1.0655106683236093</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="31">
         <v>0.14397499999999999</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="30">
         <f t="shared" si="2"/>
         <v>1.4054453898246224</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="28">
         <v>0.127553</v>
       </c>
       <c r="K7" s="11">
@@ -1492,40 +1563,40 @@
         <v>1.5863915392033117</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="31">
         <f t="shared" ref="B8:B15" si="5">B7+1000</f>
         <v>3000</v>
       </c>
       <c r="C8" s="3">
         <v>0.42510599999999998</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>0.49807299999999999</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <f t="shared" si="0"/>
         <v>0.85350139437391703</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="31">
         <v>0.37359199999999998</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="30">
         <f t="shared" si="1"/>
         <v>1.1378883916143814</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="31">
         <v>0.30744100000000002</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="30">
         <f t="shared" si="2"/>
         <v>1.3827238396960717</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="28">
         <v>0.23902599999999999</v>
       </c>
       <c r="K8" s="11">
@@ -1533,40 +1604,40 @@
         <v>1.7784927162735436</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
       <c r="C9" s="3">
         <v>0.81299500000000002</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>0.90996699999999997</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="30">
         <f t="shared" si="0"/>
         <v>0.89343349813784456</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <v>0.66616699999999995</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="30">
         <f t="shared" si="1"/>
         <v>1.2204071951927971</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="31">
         <v>0.53539700000000001</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="30">
         <f t="shared" si="2"/>
         <v>1.5184900176878093</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="28">
         <v>0.42973299999999998</v>
       </c>
       <c r="K9" s="11">
@@ -1574,40 +1645,40 @@
         <v>1.8918607600533357</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="31">
         <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="C10" s="3">
         <v>1.2126729999999999</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="31">
         <v>1.651762</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="30">
         <f t="shared" si="0"/>
         <v>0.73416932947967073</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="31">
         <v>1.0004139999999999</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="30">
         <f t="shared" si="1"/>
         <v>1.2121711611392882</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="31">
         <v>0.81610199999999999</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="30">
         <f t="shared" si="2"/>
         <v>1.485933130907656</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="28">
         <v>0.69477599999999995</v>
       </c>
       <c r="K10" s="11">
@@ -1615,40 +1686,40 @@
         <v>1.7454157886858499</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <f t="shared" si="5"/>
         <v>6000</v>
       </c>
       <c r="C11" s="3">
         <v>1.720764</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="31">
         <v>3.0465719999999998</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="30">
         <f t="shared" si="0"/>
         <v>0.56481973838136768</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="31">
         <v>1.6575120000000001</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <f t="shared" si="1"/>
         <v>1.0381608096954953</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="31">
         <v>1.1119140000000001</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="30">
         <f t="shared" si="2"/>
         <v>1.5475693264047399</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="28">
         <v>1.490748</v>
       </c>
       <c r="K11" s="11">
@@ -1656,40 +1727,40 @@
         <v>1.1542956958520152</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="31">
         <f t="shared" si="5"/>
         <v>7000</v>
       </c>
       <c r="C12" s="3">
         <v>2.5471370000000002</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <v>4.4971459999999999</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="30">
         <f t="shared" si="0"/>
         <v>0.56638966135411217</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="31">
         <v>3.891213</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="30">
         <f t="shared" si="1"/>
         <v>0.65458688588879621</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="31">
         <v>1.915986</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="30">
         <f t="shared" si="2"/>
         <v>1.329413158551263</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="28">
         <v>2.106185</v>
       </c>
       <c r="K12" s="11">
@@ -1697,40 +1768,40 @@
         <v>1.2093605262595641</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="31">
         <f t="shared" si="5"/>
         <v>8000</v>
       </c>
       <c r="C13" s="3">
         <v>4.971158</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="31">
         <v>4.5523730000000002</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="30">
         <f t="shared" si="0"/>
         <v>1.0919926816190149</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="31">
         <v>4.0248220000000003</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="30">
         <f t="shared" si="1"/>
         <v>1.2351249322330278</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="34">
         <v>2.66866</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="30">
         <f t="shared" si="2"/>
         <v>1.862791813119693</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="28">
         <v>3.7241339999999998</v>
       </c>
       <c r="K13" s="11">
@@ -1738,40 +1809,40 @@
         <v>1.3348493904891714</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="31">
         <f t="shared" si="5"/>
         <v>9000</v>
       </c>
       <c r="C14" s="3">
         <v>5.5826630000000002</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="31">
         <v>8.3594889999999999</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="30">
         <f t="shared" si="0"/>
         <v>0.66782347581293544</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="31">
         <v>4.0638740000000002</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="30">
         <f t="shared" si="1"/>
         <v>1.3737293528293446</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="31">
         <v>4.1605359999999996</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="30">
         <f t="shared" si="2"/>
         <v>1.3418134105797908</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="28">
         <v>3.7171219999999998</v>
       </c>
       <c r="K14" s="11">
@@ -1779,8 +1850,8 @@
         <v>1.5018777968546635</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33">
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="32">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
